--- a/output/fit_clients/fit_round_39.xlsx
+++ b/output/fit_clients/fit_round_39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>10020118956.14166</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003766802527105908</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.429674829214188</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9275181970943563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.429674829214188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6434885143.246979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005619423635053491</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.081396904614377</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8929194858951264</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.081396904614377</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5384577778.11744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002600847280595922</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.063097473483952</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9603222142503632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-4.063097473483952</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4409390566.304575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003807780051075473</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7886483834826615</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.948694041289933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.008207453351663</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.948694041289933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7824614559.229276</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002853409197230434</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.613119467984279</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8142510528625103</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.613119467984279</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8181106786.537066</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008289811484255148</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.01376721084524387</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.733137916705768</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.3583990936786488</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.733137916705768</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6186400591.660988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003504624664534407</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.014516166661762</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.949684725854558</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.014516166661762</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6563788662.068967</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00547989069390814</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.436977899265806</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9199301046913172</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.436977899265806</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3510966438.488535</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005513414953798959</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.077959780636063</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9220255786096871</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.077959780636063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3428535746.86925</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001013199082698562</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.773066418081507</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7463703933432251</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.773066418081507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8537230828.221643</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001997486256765362</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.198194585009404</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9997129220409029</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.198194585009404</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6664456042.089249</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003211427664529863</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.075411317611821</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.017360322220264</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.075411317611821</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7287912262.275664</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002707174560776881</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.4893939116828</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8828970262295245</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.4893939116828</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7113417014.288555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005659206238630045</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.217620383236084</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.932303078737974</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.217620383236084</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7198843417.238832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005530770365794906</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.567529813158341</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9011189941306174</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.567529813158341</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6281025378.314833</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002871319497998606</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.025158272501743</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.950753830487984</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.025158272501743</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4845765846.191144</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009626164818052087</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.337702373025509</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9790334410954766</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.337702373025509</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4075892567.53578</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001936498177339155</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.963127689906756</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8738061066310318</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.963127689906756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4973987062.600861</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001346650982826133</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.701343643489577</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.819177342583129</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.701343643489577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5628364433.04378</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.003881117362695058</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.76170857738583</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.122848854333157</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.008452608215838</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.122848854333157</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6268714011.241818</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005729043475882987</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.351186441806263</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8822987648844038</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.351186441806263</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7940376172.166908</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001475049429535729</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.650650722879179</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8281558313771478</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.650650722879179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5946250529.660227</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004339216194858503</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.605488004537381</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.979966571475922</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.605488004537381</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4749261691.059398</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003747412873420832</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.558865624372295</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9167661582479792</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.558865624372295</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4664858034.733393</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001179422404789804</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.659579161484706</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7822573048842429</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.659579161484706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6523397206.130428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.00297935661500501</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.131108817768189</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9087078494307178</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.131108817768189</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8400771853.318058</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004851044068254336</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.52533125823922</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9011189941306174</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.52533125823922</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7141324973.29065</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001503255353810984</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.869380736135903</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9816445703633765</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.869380736135903</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7349276906.543526</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002913473357843554</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.154557632216138</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8810309742632849</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.154557632216138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7926926855.212666</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002107473856860145</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
         <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.357705130667642</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9604701190419636</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.357705130667642</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4286734849.301276</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001134360988614704</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.785613574514623</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9321507046795287</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.785613574514623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7766806338.655236</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002646214577966483</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.592609163583365</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8282788457295519</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.592609163583365</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5493083844.373101</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004238766654685501</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.394489310162445</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8190039219758317</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.394489310162445</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6783883573.733929</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001670824236087329</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.49244863183121</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.286232723420406</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.49244863183121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6587061337.536536</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003376974256615069</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.281017442473293</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9957825818022799</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.281017442473293</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6385283655.952089</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004311154096272592</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.130369489848478</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9811474625489095</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.130369489848478</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3019825708.933935</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003865762533778451</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.202591018826295</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8936246538333161</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.202591018826295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5362071001.591185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003212383154951364</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.693024436509805</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8500692114606736</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.693024436509805</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5467176487.387938</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003347119220529812</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.688837268248597</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.982037685907485</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.688837268248597</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5549792051.551308</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001106064622632686</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.785141608935161</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9240728372552784</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.785141608935161</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5209986836.665634</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004625076697153212</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3633880521973878</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.396311099787951</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.7432269500107912</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.396311099787951</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6914601215.632583</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004497762782281112</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.61817431991058</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9178736059909807</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.61817431991058</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6904525746.300157</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002136841103985963</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.0771758217332</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9113646059442317</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.0771758217332</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5449630265.117288</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001692988115266891</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.567222648967056</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9379955909191732</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.567222648967056</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10126821910.24803</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005537612634577985</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.309535042062384</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8151492844714444</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.309535042062384</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9797937375.65868</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002844272783470216</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8568861839142302</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.415684460329972</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.146629266926255</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.415684460329972</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6977581512.971596</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003523926500957359</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.616956081868849</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9620344778106162</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.616956081868849</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5860576343.741875</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004563360214862705</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.416530175061547</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8764065876902134</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.416530175061547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5949064686.220039</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003805746670374762</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.320276014067108</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.028997108082487</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.320276014067108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4429532484.231284</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005575899486500316</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.403526917022435</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.024789854108782</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.7340691618746245</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.024789854108782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5290233152.34581</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001358091522614605</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.217039583777802</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8348512673718271</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.217039583777802</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4807960066.018698</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003443292146848837</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.29946210235605</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9049213770267492</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.29946210235605</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5707767683.93243</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005281280455700668</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.747958517855896</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8027669485615344</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.747958517855896</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8228564281.544612</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.00283652517150958</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.098143441598004</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8872126971367013</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.098143441598004</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5635990597.94524</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00182349531512005</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.8895048011127649</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.534236542711598</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.183419864572391</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.534236542711598</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6864215908.202299</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002944973623531609</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.721645638324902</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8436153578047904</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.721645638324902</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6168341213.680592</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002735311581839179</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.567239662834684</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7656928009350314</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.567239662834684</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6188960992.19827</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004191323852217019</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.069383462825467</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8628321093769663</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.069383462825467</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5297348195.611982</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003992097508953151</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7889785019719023</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.162486328152003</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.015584200126834</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.162486328152003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7290415912.623982</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004914809668055914</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.628881210316642</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9268388167818976</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.628881210316642</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6415350278.583622</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003716332378475398</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.688331313481739</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8449868247375192</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.688331313481739</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8970614811.738548</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004901137390937522</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.3652064006357159</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.069268333126364</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.6665128392544973</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.069268333126364</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3953781121.108498</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003543888897129292</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.065386744099819</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9103611604966798</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.065386744099819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7582497091.697385</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005376745254704128</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.556518775220249</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.032702406057894</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.556518775220249</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5177738911.379786</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00257679262318846</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.320709533205464</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8902076830382516</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.320709533205464</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6470898510.200838</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005508905832357404</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.473595114564954</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9355233853154222</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.473595114564954</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5980220205.294753</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003074579453447537</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.151168443121996</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7338247479299204</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.151168443121996</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6747788323.845889</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001278315662138947</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.837028767662233</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9670477316027968</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.837028767662233</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6110468696.311256</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002634617846086544</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7003483492261297</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.385624088106576</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.032337403070576</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.385624088106576</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3724969719.537205</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002992230301073467</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.717259563496567</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8016275764192335</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.717259563496567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5739726193.317811</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001735603917409863</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.495435694117768</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.049059793421262</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.495435694117768</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8033440360.307367</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001129615223952978</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.745533916861792</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9532934152392216</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.745533916861792</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6156554638.676341</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004470697925471639</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.220565671205388</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8576597368938138</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.220565671205388</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7910537467.541294</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00369239439711807</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.040128676619508</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8296756645454713</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.040128676619508</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7624013028.832469</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002700248894096009</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.191301162189815</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.196283057412942</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.357262005605223</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.196283057412942</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6635100063.969458</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005782815089344898</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.287000067588774</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.011070339022874</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.287000067588774</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6801483518.556434</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00509984921121599</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9055050738625173</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.321073516282117</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.205072036732604</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.321073516282117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6185011763.692959</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002290334477444343</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.1393007179742462</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.029083706392896</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.3623134387598374</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.029083706392896</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7196727175.215611</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002229244301511673</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.404279885404067</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9545073062027075</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.404279885404067</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5013194791.640743</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003544500096078012</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.17356472349466</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9948642861183583</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.17356472349466</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5714586460.202728</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004325836511041158</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8797751053815603</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4.185038455965643</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.196374793842115</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-4.185038455965643</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7822807659.346711</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.00226037284140794</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.378148845341846</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7402472385203992</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.378148845341846</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7239465788.837841</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004092897042644769</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.08031113667381</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9405696241824385</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.08031113667381</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5149015173.009363</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002315247446539669</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.08284110201635939</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.897619278501527</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.3204663047333033</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.897619278501527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6893870733.982779</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002537731189258783</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.091565962466035</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9403102457730781</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.091565962466035</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3869540610.725119</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001402280031372014</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>13</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3413675179814825</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.601095020319231</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.621424191018532</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.601095020319231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6109460678.607508</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005398480413479483</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.890413258989528</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.7984782506028483</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.890413258989528</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7268311906.888836</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003451900146276693</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.062545233718972</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.5063696835418333</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.062545233718972</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6712528020.048948</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00228368116039368</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.036502883346386</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9109409920237724</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.036502883346386</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5750355091.355675</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003651459272572216</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.114664301422875</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8506429236354733</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.114664301422875</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4561718364.607871</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002696139590043225</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.358016823748301</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.019973222299424</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.358016823748301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5610347420.899588</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00149140770680943</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.515806969714601</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.929968494575105</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.515806969714601</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6791198914.306585</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001546484693975542</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.300139157867999</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.040776758212658</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.300139157867999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7075824906.841575</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002891169019483185</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.039934831803325</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9335012391687203</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.039934831803325</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6109840174.029538</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002960360332802346</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.878778290204595</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8949194846435095</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.878778290204595</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7381689760.775259</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004656995119360256</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8995770433215464</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.905280140797793</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.178522650376028</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.905280140797793</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7885520974.607789</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00418555162562967</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.580847073173296</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8732016167972255</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.580847073173296</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2591931612.303772</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005073882448429064</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9068465312007177</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.00564988813303</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.17494714384972</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.00564988813303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4750363542.580093</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003512159531121915</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.216219545037228</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8025899820662069</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.216219545037228</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5821242044.235078</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001632962255617613</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5639238815861273</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.391745391019073</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8698677226847019</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.391745391019073</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_39.xlsx
+++ b/output/fit_clients/fit_round_39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>10020118956.14166</v>
+        <v>2295695239.170542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003766802527105908</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+        <v>0.08586400372350761</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03630786187082265</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1147847654.841434</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6434885143.246979</v>
+        <v>2107266172.525276</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005619423635053491</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1341510743263818</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04792772645475301</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="J3" t="n">
+        <v>1053633142.764796</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5384577778.11744</v>
+        <v>4240486575.599217</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002600847280595922</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+        <v>0.1003326716862724</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03538857433149376</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2120243318.848793</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4409390566.304575</v>
+        <v>2572598263.77147</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003807780051075473</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08434387291846455</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04943730897157762</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1286299229.834254</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7824614559.229276</v>
+        <v>1848239006.518759</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002853409197230434</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.1210757347817588</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03955438667328572</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>924119549.1021935</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8181106786.537066</v>
+        <v>2598219968.480258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008289811484255148</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
+        <v>0.06279528736071496</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03240215602580412</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1299109987.655191</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2576042730.822022</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.176614229757613</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02838521220528087</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6186400591.660988</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003504624664534407</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1288021379.452323</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6563788662.068967</v>
+        <v>1486637866.652961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00547989069390814</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12</v>
+        <v>0.1828120685902666</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03188110641898969</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>743319030.9855748</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3510966438.488535</v>
+        <v>5132228308.886269</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005513414953798959</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1358397190251758</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05290752564698573</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2566114263.831395</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3428535746.86925</v>
+        <v>2690216535.624641</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001013199082698562</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1575762763911864</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03810225797910518</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1345108188.962367</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8537230828.221643</v>
+        <v>2103121648.071311</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001997486256765362</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
+        <v>0.1979416005955206</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0359689563631425</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1051560759.746728</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6664456042.089249</v>
+        <v>3971216168.158249</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003211427664529863</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>0.1010169788961885</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02999808547738434</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1985608140.305725</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7287912262.275664</v>
+        <v>2806988876.718507</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002707174560776881</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
+        <v>0.1377659020374868</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03440059898308266</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1403494486.616943</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7113417014.288555</v>
+        <v>1623402884.279976</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005659206238630045</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.0823890992837164</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03170650250658858</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>811701555.4578615</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7198843417.238832</v>
+        <v>2534958511.872689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005530770365794906</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
+        <v>0.07769239803444655</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03463204088619112</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1267479283.460295</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4204611141.154452</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1071890054755511</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04790261464369554</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>462</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6281025378.314833</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.002871319497998606</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2102305594.914612</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4845765846.191144</v>
+        <v>2652311306.335624</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009626164818052087</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11</v>
+        <v>0.1829324078744634</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02291486414355496</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1326155708.409802</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4075892567.53578</v>
+        <v>1310871387.660612</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001936498177339155</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.139033995450751</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01776384659045546</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>655435798.5626438</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4973987062.600861</v>
+        <v>2041165891.833029</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001346650982826133</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1490114460837684</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02287216893663652</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1020582967.709916</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5628364433.04378</v>
+        <v>2669390172.661676</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003881117362695058</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
+        <v>0.06432013724430174</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04107423153445619</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1334695058.147713</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6268714011.241818</v>
+        <v>2469645515.558703</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005729043475882987</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
+        <v>0.1209861520962446</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03666763177095718</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1234822850.93187</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7940376172.166908</v>
+        <v>1267394895.820726</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001475049429535729</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>0.1856613059928419</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05264052649284385</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>633697472.8823333</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5946250529.660227</v>
+        <v>2523081532.669484</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004339216194858503</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1348599368761876</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02773712472958683</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1261540833.514436</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4749261691.059398</v>
+        <v>1441853712.052594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003747412873420832</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
+        <v>0.1202551572815857</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02433301260034917</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>720926818.1534193</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4664858034.733393</v>
+        <v>1411620756.583561</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001179422404789804</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08793610700045115</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02890752312177426</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>705810450.9909749</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6523397206.130428</v>
+        <v>3843588937.089091</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00297935661500501</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.1378482590997811</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02450537665794866</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1921794486.300622</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3570844514.99218</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1018988724866987</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03953786609428213</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8400771853.318058</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.004851044068254336</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1785422318.09239</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7141324973.29065</v>
+        <v>3997322793.839154</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001503255353810984</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.111914792882199</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02879112150454628</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>10</v>
+      <c r="I29" t="n">
+        <v>17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1998661413.879026</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7349276906.543526</v>
+        <v>2304250867.088662</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002913473357843554</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>14</v>
+        <v>0.10744518538751</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03035871716685491</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1152125505.478435</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7926926855.212666</v>
+        <v>1271277053.228991</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002107473856860145</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
+        <v>0.08905145585735792</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04022129331815327</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>635638461.1410154</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4286734849.301276</v>
+        <v>1310827008.44017</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001134360988614704</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08017178745226428</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02691062177249653</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>655413533.1916962</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7766806338.655236</v>
+        <v>2141468039.935225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002646214577966483</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
+        <v>0.2037345983643658</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05178388615382767</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1070734088.542868</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5493083844.373101</v>
+        <v>969918590.5461742</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004238766654685501</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>12</v>
+        <v>0.1138840718931206</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02064290499856927</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>484959337.9171646</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6783883573.733929</v>
+        <v>1128805555.995663</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001670824236087329</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
+        <v>0.1183273813588741</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03872283837912447</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>564402768.161153</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6587061337.536536</v>
+        <v>2429063517.224388</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003376974256615069</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>11</v>
+        <v>0.1274217434990147</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02337854996980104</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1214531786.116992</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6385283655.952089</v>
+        <v>2585906181.622074</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004311154096272592</v>
-      </c>
-      <c r="G37" t="b">
+        <v>0.100606433393026</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02813381101970046</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1292953198.530652</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3019825708.933935</v>
+        <v>1897955605.619456</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003865762533778451</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1108649080385962</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02927193906808615</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>948977795.6929436</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5362071001.591185</v>
+        <v>1549797885.25205</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003212383154951364</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1472996007783933</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02008869909069947</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>774899005.3432474</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5467176487.387938</v>
+        <v>1263849382.442519</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003347119220529812</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.11861023886301</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04214959756149021</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>631924716.3563567</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5549792051.551308</v>
+        <v>2533301528.497968</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001106064622632686</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11</v>
+        <v>0.1446324307664517</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03256530835605183</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1266650786.161171</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5209986836.665634</v>
+        <v>2850333659.555272</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004625076697153212</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
+        <v>0.08740852427934699</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03335000290233189</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>13</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1425166779.661974</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6914601215.632583</v>
+        <v>1961757781.098735</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004497762782281112</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
+        <v>0.1572994462750491</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01670657190379965</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13</v>
+      </c>
+      <c r="J43" t="n">
+        <v>980878993.1159354</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6904525746.300157</v>
+        <v>2023303098.199954</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002136841103985963</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>11</v>
+        <v>0.06911017218220675</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0314311546694239</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1011651659.927574</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5449630265.117288</v>
+        <v>1605650913.838311</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001692988115266891</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1942843169570665</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03840101112497909</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>802825407.8935132</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10126821910.24803</v>
+        <v>4996944652.495877</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005537612634577985</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
+        <v>0.1288775619051572</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04103082625593427</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2498472352.730343</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>456</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3652274698.602191</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1330516703090346</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04710630316496892</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" t="n">
-        <v>368</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9797937375.65868</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.002844272783470216</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1826137328.570174</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6977581512.971596</v>
+        <v>4211423616.936378</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003523926500957359</v>
-      </c>
-      <c r="G48" t="b">
+        <v>0.07555133957643323</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02521653763203757</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="H48" t="n">
-        <v>6</v>
+      <c r="I48" t="n">
+        <v>13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2105711830.403919</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5860576343.741875</v>
+        <v>1748679562.760282</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004563360214862705</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1346906166596674</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03046816743624359</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>874339774.5770907</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5949064686.220039</v>
+        <v>3995090362.422459</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003805746670374762</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>11</v>
+        <v>0.1325609115334664</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.034298637654535</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1997545170.059664</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4429532484.231284</v>
+        <v>1329057613.800167</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005575899486500316</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1219192226335485</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04982557436068292</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>664528837.3800521</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5290233152.34581</v>
+        <v>3260278020.875872</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001358091522614605</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
+        <v>0.1208150559150221</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0609515696833318</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1630139110.29809</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>471</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3784511095.785077</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1450405836302915</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02270625694817036</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
-        <v>443</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4807960066.018698</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.003443292146848837</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1892255525.951661</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5707767683.93243</v>
+        <v>3845893521.609198</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005281280455700668</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
+        <v>0.1672840390217187</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04408722195458189</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1922946812.61193</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8228564281.544612</v>
+        <v>4554801324.934242</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00283652517150958</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>13</v>
+        <v>0.1520810580973429</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02358927353350534</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2277400661.674363</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5635990597.94524</v>
+        <v>1753047780.73035</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00182349531512005</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1074629678430839</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05016583826446011</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>876523895.0156666</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6864215908.202299</v>
+        <v>4117230233.753942</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002944973623531609</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.1594440588479679</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02281739301189906</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2058615214.904084</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6168341213.680592</v>
+        <v>1463438874.386409</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002735311581839179</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
+        <v>0.1276862416087946</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02577601768483335</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>731719471.4989578</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6188960992.19827</v>
+        <v>4570824434.33174</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004191323852217019</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.08848977078904514</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03801749842372527</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2285412165.424391</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5297348195.611982</v>
+        <v>2563279496.469236</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003992097508953151</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.129631934019956</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0202434265636794</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1281639772.646202</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7290415912.623982</v>
+        <v>2951363744.8207</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004914809668055914</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
+        <v>0.1786560170675903</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02329198905999826</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1475681857.299454</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6415350278.583622</v>
+        <v>1918099699.422782</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003716332378475398</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
+        <v>0.1755879290803673</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03405269348290515</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>959049895.2981969</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8970614811.738548</v>
+        <v>5460681294.121597</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004901137390937522</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
+        <v>0.07234774652401806</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03672582714983634</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2730340644.088393</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3953781121.108498</v>
+        <v>4170312283.789876</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003543888897129292</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.127022826671626</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02842831340486104</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2085156189.572926</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7582497091.697385</v>
+        <v>4193884828.374743</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005376745254704128</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
+        <v>0.1556399666521408</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0254991919258207</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2096942421.030468</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5177738911.379786</v>
+        <v>4291110301.743958</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00257679262318846</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1530785912025501</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04542465012683602</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2145555139.875178</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>499</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3155847523.566868</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.06721909312992363</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03418168405991551</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="D67" t="n">
-        <v>411</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6470898510.200838</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.005508905832357404</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+      <c r="I67" t="n">
+        <v>12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1577923766.725523</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>496</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3701322006.591743</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1404834361219734</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04430312295322488</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" t="n">
-        <v>462</v>
-      </c>
-      <c r="E68" t="n">
-        <v>5980220205.294753</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.003074579453447537</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1850660980.832046</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6747788323.845889</v>
+        <v>1872299229.187619</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001278315662138947</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.1155994490702485</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04309788540005755</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>936149602.8890616</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6110468696.311256</v>
+        <v>2998307689.255609</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002634617846086544</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.09893604734246912</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04279230379986531</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1499153821.382143</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3724969719.537205</v>
+        <v>4014888218.315482</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002992230301073467</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1638947012202618</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02271429816089118</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2007444141.173957</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5739726193.317811</v>
+        <v>2191813855.845127</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001735603917409863</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
+        <v>0.1012989354373231</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03751143512325925</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1095906843.164913</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>8033440360.307367</v>
+        <v>2363507982.307102</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001129615223952978</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>9</v>
+        <v>0.08752356944459373</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04650441692783165</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1181754045.221065</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6156554638.676341</v>
+        <v>3039874402.586861</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004470697925471639</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1129492675433534</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03037190952823882</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>13</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1519937263.104683</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7910537467.541294</v>
+        <v>2226424301.156365</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00369239439711807</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
+        <v>0.1260427864136599</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02992473504106997</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1113212093.367059</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7624013028.832469</v>
+        <v>4356375194.653466</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002700248894096009</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>7</v>
+        <v>0.119592603772545</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02610612339982224</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2178187596.837572</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6635100063.969458</v>
+        <v>1539004164.00065</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005782815089344898</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1290480726481545</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02447082796819715</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>769502075.250877</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6801483518.556434</v>
+        <v>3294856445.233231</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00509984921121599</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.1167304742699704</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05188581110649115</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1647428238.650156</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6185011763.692959</v>
+        <v>1342011507.838737</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002290334477444343</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.144017126768694</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03355491207814012</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>671005760.2860895</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7196727175.215611</v>
+        <v>4878114451.236086</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002229244301511673</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.1016496296996077</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03871289957727847</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2439057268.591477</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5013194791.640743</v>
+        <v>4949071660.852839</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003544500096078012</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.1028684260335656</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02803400201836124</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2474535828.744483</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5714586460.202728</v>
+        <v>3621164639.162789</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004325836511041158</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.1765936776203429</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01877507261119681</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>14</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1810582380.333848</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7822807659.346711</v>
+        <v>2269119307.722588</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00226037284140794</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1412495656219746</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03059471333594334</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1134559672.506691</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7239465788.837841</v>
+        <v>2017942271.696665</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004092897042644769</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>11</v>
+        <v>0.0978207539313683</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03736446115774159</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1008971138.057939</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5149015173.009363</v>
+        <v>2300755087.515416</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002315247446539669</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1487519431932711</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03576157144076145</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1150377526.556323</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6893870733.982779</v>
+        <v>1982990659.229843</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002537731189258783</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>13</v>
+        <v>0.1351213634065285</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02201569765574942</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>991495354.72609</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3869540610.725119</v>
+        <v>1385864602.298519</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001402280031372014</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1578029497324525</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03988406601039607</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>692932404.2063421</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6109460678.607508</v>
+        <v>2499696083.636477</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005398480413479483</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.1667782175616039</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.035939234075031</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1249848022.657532</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7268311906.888836</v>
+        <v>2945837333.531956</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003451900146276693</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>8</v>
+        <v>0.1387941465657742</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03362374664441137</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1472918708.681803</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6712528020.048948</v>
+        <v>2003622050.790168</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00228368116039368</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
+        <v>0.0975145805391982</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04930570040690142</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1001811096.137019</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5750355091.355675</v>
+        <v>1475333583.744163</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003651459272572216</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11</v>
+        <v>0.152324288997678</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05460618013277798</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>737666833.9157619</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4561718364.607871</v>
+        <v>2391018501.883729</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002696139590043225</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08167036574209786</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03706308320957363</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1195509226.499901</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5610347420.899588</v>
+        <v>4016401285.958569</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00149140770680943</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>14</v>
+        <v>0.1367766709200366</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04107890260450099</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2008200642.389618</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6791198914.306585</v>
+        <v>1658057208.228295</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001546484693975542</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>14</v>
+        <v>0.1649489170480917</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0290464050975006</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>829028557.7797791</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7075824906.841575</v>
+        <v>3154626094.808503</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002891169019483185</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.118780855176301</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03270965794624691</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1577313035.750768</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6109840174.029538</v>
+        <v>1784884708.131181</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002960360332802346</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>10</v>
+        <v>0.09612200361693098</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03207248417471156</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>892442363.8450731</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7381689760.775259</v>
+        <v>4823170644.559634</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004656995119360256</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>10</v>
+        <v>0.15015026097834</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01940565988625754</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2411585444.685119</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7885520974.607789</v>
+        <v>3661939152.970817</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00418555162562967</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>15</v>
+        <v>0.11731418234916</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02739470814454051</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1830969605.928788</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2591931612.303772</v>
+        <v>2874842537.253599</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005073882448429064</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1026900729396003</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02933534899722849</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1437421245.342478</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4750363542.580093</v>
+        <v>3907040823.592372</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003512159531121915</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
+        <v>0.1512483313309069</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01906235294403811</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1953520474.903095</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5821242044.235078</v>
+        <v>3517266569.406549</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001632962255617613</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>13</v>
+        <v>0.1356031920468909</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.041255940077357</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1758633441.950422</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_39.xlsx
+++ b/output/fit_clients/fit_round_39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2295695239.170542</v>
+        <v>1701221638.68311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08586400372350761</v>
+        <v>0.1016193672501079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03630786187082265</v>
+        <v>0.03857453791874802</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1147847654.841434</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2107266172.525276</v>
+        <v>1872208246.080516</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1341510743263818</v>
+        <v>0.1657841231679332</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04792772645475301</v>
+        <v>0.0304548049798837</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1053633142.764796</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4240486575.599217</v>
+        <v>3881027841.605601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1003326716862724</v>
+        <v>0.1137014875396262</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03538857433149376</v>
+        <v>0.03525598725001952</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2120243318.848793</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2572598263.77147</v>
+        <v>3215292474.363093</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08434387291846455</v>
+        <v>0.1061018198750702</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04943730897157762</v>
+        <v>0.0387328254371313</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1286299229.834254</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1848239006.518759</v>
+        <v>1888571935.582533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1210757347817588</v>
+        <v>0.1042938122339413</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03955438667328572</v>
+        <v>0.04999919905320551</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>924119549.1021935</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2598219968.480258</v>
+        <v>2023976517.421915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06279528736071496</v>
+        <v>0.08539683272237145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03240215602580412</v>
+        <v>0.04657250708574605</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1299109987.655191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2576042730.822022</v>
+        <v>2719530651.508646</v>
       </c>
       <c r="F8" t="n">
-        <v>0.176614229757613</v>
+        <v>0.1670055895137118</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02838521220528087</v>
+        <v>0.02686012810705871</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1288021379.452323</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1486637866.652961</v>
+        <v>1576233236.97939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1828120685902666</v>
+        <v>0.1318797014705819</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03188110641898969</v>
+        <v>0.02466172180825113</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>743319030.9855748</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5132228308.886269</v>
+        <v>4154564408.927087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1358397190251758</v>
+        <v>0.1775742914167091</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05290752564698573</v>
+        <v>0.04137946462638976</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2566114263.831395</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2690216535.624641</v>
+        <v>3975948316.799678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1575762763911864</v>
+        <v>0.1186722578324431</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03810225797910518</v>
+        <v>0.03313066417511334</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1345108188.962367</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2103121648.071311</v>
+        <v>2886092269.172956</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1979416005955206</v>
+        <v>0.1239457669057307</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0359689563631425</v>
+        <v>0.04643900365227862</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1051560759.746728</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3971216168.158249</v>
+        <v>4834738851.064648</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1010169788961885</v>
+        <v>0.07383583281884143</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02999808547738434</v>
+        <v>0.02889998719635401</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1985608140.305725</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2806988876.718507</v>
+        <v>2934303039.860106</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1377659020374868</v>
+        <v>0.1835971234503231</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03440059898308266</v>
+        <v>0.02681673543023651</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1403494486.616943</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1623402884.279976</v>
+        <v>1718008891.813868</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0823890992837164</v>
+        <v>0.10009977405389</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03170650250658858</v>
+        <v>0.04059574890898636</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>811701555.4578615</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2534958511.872689</v>
+        <v>2475974856.059334</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07769239803444655</v>
+        <v>0.1101959121913257</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03463204088619112</v>
+        <v>0.04154301713851169</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1267479283.460295</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4204611141.154452</v>
+        <v>3680050385.228675</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1071890054755511</v>
+        <v>0.1215578172635831</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04790261464369554</v>
+        <v>0.03559935585159964</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2102305594.914612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2652311306.335624</v>
+        <v>3809585450.215329</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1829324078744634</v>
+        <v>0.1380716973850177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02291486414355496</v>
+        <v>0.03342294787967431</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1326155708.409802</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1310871387.660612</v>
+        <v>1323189350.885088</v>
       </c>
       <c r="F19" t="n">
-        <v>0.139033995450751</v>
+        <v>0.1693872063206502</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01776384659045546</v>
+        <v>0.01791638530165589</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>655435798.5626438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2041165891.833029</v>
+        <v>2498107593.412557</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1490114460837684</v>
+        <v>0.1025018993061866</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02287216893663652</v>
+        <v>0.01966951204512016</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1020582967.709916</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2669390172.661676</v>
+        <v>2373530762.142059</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06432013724430174</v>
+        <v>0.09370984530814588</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04107423153445619</v>
+        <v>0.04439373349076629</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1334695058.147713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2469645515.558703</v>
+        <v>3913952522.114369</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1209861520962446</v>
+        <v>0.1290244056637499</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03666763177095718</v>
+        <v>0.05114031754586418</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1234822850.93187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1267394895.820726</v>
+        <v>1181192592.433721</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1856613059928419</v>
+        <v>0.1567827196960403</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05264052649284385</v>
+        <v>0.03395302316855361</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>633697472.8823333</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2523081532.669484</v>
+        <v>4029245677.97349</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1348599368761876</v>
+        <v>0.1432454511236983</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02773712472958683</v>
+        <v>0.02681225911626706</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1261540833.514436</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1441853712.052594</v>
+        <v>1054481209.848001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1202551572815857</v>
+        <v>0.1072918314875525</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02433301260034917</v>
+        <v>0.02992430198104088</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>720926818.1534193</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1411620756.583561</v>
+        <v>880091497.5386168</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08793610700045115</v>
+        <v>0.1184865148025275</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02890752312177426</v>
+        <v>0.02648959730019605</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>705810450.9909749</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3843588937.089091</v>
+        <v>3853978182.332242</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1378482590997811</v>
+        <v>0.1571303364086507</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02450537665794866</v>
+        <v>0.02440020237214411</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1921794486.300622</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3570844514.99218</v>
+        <v>3388005408.405371</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1018988724866987</v>
+        <v>0.09304208292334848</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03953786609428213</v>
+        <v>0.04759978253053546</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1785422318.09239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3997322793.839154</v>
+        <v>3853489542.724836</v>
       </c>
       <c r="F29" t="n">
-        <v>0.111914792882199</v>
+        <v>0.1237774697669472</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02879112150454628</v>
+        <v>0.03746930319188237</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>17</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1998661413.879026</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2304250867.088662</v>
+        <v>1518895104.780455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.10744518538751</v>
+        <v>0.1241794576410465</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03035871716685491</v>
+        <v>0.03776521688187331</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1152125505.478435</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1271277053.228991</v>
+        <v>975261505.6050153</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08905145585735792</v>
+        <v>0.08002010474535388</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04022129331815327</v>
+        <v>0.03799507168872527</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>635638461.1410154</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1310827008.44017</v>
+        <v>1695731558.805856</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08017178745226428</v>
+        <v>0.08910999240659585</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02691062177249653</v>
+        <v>0.03232452164153206</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>655413533.1916962</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2141468039.935225</v>
+        <v>2752755186.388956</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2037345983643658</v>
+        <v>0.1842606970777725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05178388615382767</v>
+        <v>0.0410901147551272</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1070734088.542868</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>969918590.5461742</v>
+        <v>964986605.2909002</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1138840718931206</v>
+        <v>0.08756856634776093</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02064290499856927</v>
+        <v>0.02792146698264946</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>484959337.9171646</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1128805555.995663</v>
+        <v>918418380.7505131</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1183273813588741</v>
+        <v>0.1036090340582758</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03872283837912447</v>
+        <v>0.03072681715365542</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>564402768.161153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2429063517.224388</v>
+        <v>3174028315.132294</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1274217434990147</v>
+        <v>0.1529875963183284</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02337854996980104</v>
+        <v>0.0174587681086608</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1214531786.116992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2585906181.622074</v>
+        <v>2533004806.975579</v>
       </c>
       <c r="F37" t="n">
-        <v>0.100606433393026</v>
+        <v>0.07184217953261841</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02813381101970046</v>
+        <v>0.02618603198391078</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1292953198.530652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1897955605.619456</v>
+        <v>1677148477.077453</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1108649080385962</v>
+        <v>0.1154983459705247</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02927193906808615</v>
+        <v>0.0267619015903373</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>948977795.6929436</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1549797885.25205</v>
+        <v>1344706544.11561</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1472996007783933</v>
+        <v>0.1885014002691961</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02008869909069947</v>
+        <v>0.02630252692101707</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>774899005.3432474</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1263849382.442519</v>
+        <v>1393927705.53662</v>
       </c>
       <c r="F40" t="n">
-        <v>0.11861023886301</v>
+        <v>0.1277357485200456</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04214959756149021</v>
+        <v>0.05623079193979518</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>631924716.3563567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2533301528.497968</v>
+        <v>2061265823.41174</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1446324307664517</v>
+        <v>0.1395335118872717</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03256530835605183</v>
+        <v>0.03715914865518041</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1266650786.161171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2850333659.555272</v>
+        <v>3821187281.901927</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08740852427934699</v>
+        <v>0.1237299336464298</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03335000290233189</v>
+        <v>0.02911454283204371</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1425166779.661974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1961757781.098735</v>
+        <v>2565249190.610431</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1572994462750491</v>
+        <v>0.1438444126006078</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01670657190379965</v>
+        <v>0.01569371374354896</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>980878993.1159354</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2023303098.199954</v>
+        <v>2210245234.610959</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06911017218220675</v>
+        <v>0.06803709009155878</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0314311546694239</v>
+        <v>0.02414866139610644</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1011651659.927574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1605650913.838311</v>
+        <v>1930172627.485324</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1942843169570665</v>
+        <v>0.1758125635585168</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03840101112497909</v>
+        <v>0.05409612374815021</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>802825407.8935132</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4996944652.495877</v>
+        <v>5221609347.405442</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1288775619051572</v>
+        <v>0.1598614197354402</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04103082625593427</v>
+        <v>0.04811395873615228</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2498472352.730343</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3652274698.602191</v>
+        <v>3602608734.832726</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1330516703090346</v>
+        <v>0.1453969663075356</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04710630316496892</v>
+        <v>0.05315386849773669</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1826137328.570174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4211423616.936378</v>
+        <v>4397582197.209525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07555133957643323</v>
+        <v>0.07693523479914413</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02521653763203757</v>
+        <v>0.03367863991685491</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2105711830.403919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1748679562.760282</v>
+        <v>1232027566.751416</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1346906166596674</v>
+        <v>0.1288767531810078</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03046816743624359</v>
+        <v>0.03685979235257202</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>874339774.5770907</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3995090362.422459</v>
+        <v>3202306305.070081</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1325609115334664</v>
+        <v>0.1357117437822114</v>
       </c>
       <c r="G50" t="n">
-        <v>0.034298637654535</v>
+        <v>0.03297032432754623</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1997545170.059664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1329057613.800167</v>
+        <v>956110077.7724341</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1219192226335485</v>
+        <v>0.1414198394424575</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04982557436068292</v>
+        <v>0.04015819191307935</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>664528837.3800521</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3260278020.875872</v>
+        <v>3807102990.162669</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1208150559150221</v>
+        <v>0.1084717267070963</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0609515696833318</v>
+        <v>0.05556782801667488</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1630139110.29809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3784511095.785077</v>
+        <v>3792468364.476328</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1450405836302915</v>
+        <v>0.1334980931008531</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02270625694817036</v>
+        <v>0.02966757743265488</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1892255525.951661</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3845893521.609198</v>
+        <v>3596780722.94743</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1672840390217187</v>
+        <v>0.1648196005657666</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04408722195458189</v>
+        <v>0.03881241954906382</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>13</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1922946812.61193</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4554801324.934242</v>
+        <v>3739854916.925234</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1520810580973429</v>
+        <v>0.1545140789810354</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02358927353350534</v>
+        <v>0.02780555856075416</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2277400661.674363</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1753047780.73035</v>
+        <v>1266888373.118605</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1074629678430839</v>
+        <v>0.1072547278561191</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05016583826446011</v>
+        <v>0.05238705958519733</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>876523895.0156666</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4117230233.753942</v>
+        <v>3611039181.326677</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1594440588479679</v>
+        <v>0.1268309160430066</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02281739301189906</v>
+        <v>0.01914952800101931</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>12</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2058615214.904084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1463438874.386409</v>
+        <v>1285587717.682005</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1276862416087946</v>
+        <v>0.2018955150089893</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02577601768483335</v>
+        <v>0.03597997636493813</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>731719471.4989578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4570824434.33174</v>
+        <v>5193622558.462363</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08848977078904514</v>
+        <v>0.1027734334217741</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03801749842372527</v>
+        <v>0.03295823867305123</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2285412165.424391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2563279496.469236</v>
+        <v>2460784537.857962</v>
       </c>
       <c r="F60" t="n">
-        <v>0.129631934019956</v>
+        <v>0.1899586126450533</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0202434265636794</v>
+        <v>0.03336892906035218</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1281639772.646202</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2951363744.8207</v>
+        <v>2680254474.393504</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1786560170675903</v>
+        <v>0.1499453999848792</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02329198905999826</v>
+        <v>0.02621574021457325</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1475681857.299454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1918099699.422782</v>
+        <v>1913415926.74086</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1755879290803673</v>
+        <v>0.1289223927366898</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03405269348290515</v>
+        <v>0.03771476318560436</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>959049895.2981969</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5460681294.121597</v>
+        <v>4626734805.138371</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07234774652401806</v>
+        <v>0.07268526871267496</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03672582714983634</v>
+        <v>0.04647253163015951</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2730340644.088393</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4170312283.789876</v>
+        <v>3554976340.824172</v>
       </c>
       <c r="F64" t="n">
-        <v>0.127022826671626</v>
+        <v>0.1490167957626514</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02842831340486104</v>
+        <v>0.02271895149655221</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2085156189.572926</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4193884828.374743</v>
+        <v>4370772165.142247</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1556399666521408</v>
+        <v>0.1294303990389488</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0254991919258207</v>
+        <v>0.02088889272601129</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2096942421.030468</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4291110301.743958</v>
+        <v>4976225366.753378</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1530785912025501</v>
+        <v>0.1064277235527207</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04542465012683602</v>
+        <v>0.04219608644553125</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2145555139.875178</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3155847523.566868</v>
+        <v>2450047439.434317</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06721909312992363</v>
+        <v>0.09134994011754245</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03418168405991551</v>
+        <v>0.04041977235444068</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1577923766.725523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3701322006.591743</v>
+        <v>5127718877.288261</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1404834361219734</v>
+        <v>0.1182896031940276</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04430312295322488</v>
+        <v>0.04988002479983036</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1850660980.832046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1872299229.187619</v>
+        <v>1501427412.855738</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1155994490702485</v>
+        <v>0.1126039955371873</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04309788540005755</v>
+        <v>0.05194486292267198</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>936149602.8890616</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2998307689.255609</v>
+        <v>3670560233.893806</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09893604734246912</v>
+        <v>0.08478135489742103</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04279230379986531</v>
+        <v>0.03109392797997762</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1499153821.382143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4014888218.315482</v>
+        <v>4229104388.88654</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1638947012202618</v>
+        <v>0.1772217276339807</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02271429816089118</v>
+        <v>0.03024943726437037</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2007444141.173957</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2191813855.845127</v>
+        <v>1785366563.388916</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1012989354373231</v>
+        <v>0.1077819075323528</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03751143512325925</v>
+        <v>0.03484033785921737</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1095906843.164913</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2363507982.307102</v>
+        <v>3311867118.540386</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08752356944459373</v>
+        <v>0.08759661618409173</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04650441692783165</v>
+        <v>0.04823716627073234</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1181754045.221065</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3039874402.586861</v>
+        <v>3976955006.445017</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1129492675433534</v>
+        <v>0.1687491379087818</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03037190952823882</v>
+        <v>0.03179108003626041</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>13</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1519937263.104683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2226424301.156365</v>
+        <v>1778685751.015354</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1260427864136599</v>
+        <v>0.1115810342861153</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02992473504106997</v>
+        <v>0.02933210837195089</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1113212093.367059</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4356375194.653466</v>
+        <v>3959212380.993152</v>
       </c>
       <c r="F76" t="n">
-        <v>0.119592603772545</v>
+        <v>0.09662098489301038</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02610612339982224</v>
+        <v>0.03403317242960711</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2178187596.837572</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1539004164.00065</v>
+        <v>1799416899.678791</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1290480726481545</v>
+        <v>0.1610749608578823</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02447082796819715</v>
+        <v>0.02259347517218825</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>769502075.250877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3294856445.233231</v>
+        <v>4408246235.539556</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1167304742699704</v>
+        <v>0.1215199818865153</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05188581110649115</v>
+        <v>0.053119377093475</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1647428238.650156</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1342011507.838737</v>
+        <v>1504933737.817966</v>
       </c>
       <c r="F79" t="n">
-        <v>0.144017126768694</v>
+        <v>0.1412920684112406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03355491207814012</v>
+        <v>0.02778274878402051</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>671005760.2860895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4878114451.236086</v>
+        <v>5062296225.584611</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1016496296996077</v>
+        <v>0.09848880550900863</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03871289957727847</v>
+        <v>0.03538467613319801</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2439057268.591477</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4949071660.852839</v>
+        <v>5125138247.688881</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1028684260335656</v>
+        <v>0.117133272679197</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02803400201836124</v>
+        <v>0.02036755840918032</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2474535828.744483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3621164639.162789</v>
+        <v>5296067785.057054</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1765936776203429</v>
+        <v>0.1856373643289858</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01877507261119681</v>
+        <v>0.02923587605371984</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>14</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1810582380.333848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2269119307.722588</v>
+        <v>1540399434.674523</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1412495656219746</v>
+        <v>0.1505219734977233</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03059471333594334</v>
+        <v>0.03366473838697939</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1134559672.506691</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2017942271.696665</v>
+        <v>2392398461.708643</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0978207539313683</v>
+        <v>0.079418231274804</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03736446115774159</v>
+        <v>0.04808565091774009</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1008971138.057939</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2300755087.515416</v>
+        <v>2640360521.897153</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1487519431932711</v>
+        <v>0.1539079199744585</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03576157144076145</v>
+        <v>0.04038386181853061</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1150377526.556323</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1982990659.229843</v>
+        <v>2589654264.98105</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1351213634065285</v>
+        <v>0.1045291567752796</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02201569765574942</v>
+        <v>0.02287042198999756</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>991495354.72609</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1385864602.298519</v>
+        <v>1352321354.366135</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1578029497324525</v>
+        <v>0.1605032942704115</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03988406601039607</v>
+        <v>0.03692163705010481</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>692932404.2063421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2499696083.636477</v>
+        <v>2801667498.246041</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1667782175616039</v>
+        <v>0.1580559816328889</v>
       </c>
       <c r="G88" t="n">
-        <v>0.035939234075031</v>
+        <v>0.02543151818265718</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1249848022.657532</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2945837333.531956</v>
+        <v>3015432481.186991</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1387941465657742</v>
+        <v>0.1099674707813638</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03362374664441137</v>
+        <v>0.0255923815724755</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1472918708.681803</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2003622050.790168</v>
+        <v>1988809859.340729</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0975145805391982</v>
+        <v>0.1121935867575455</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04930570040690142</v>
+        <v>0.04835881899566451</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1001811096.137019</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1475333583.744163</v>
+        <v>1272352676.984494</v>
       </c>
       <c r="F91" t="n">
-        <v>0.152324288997678</v>
+        <v>0.1844828905423673</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05460618013277798</v>
+        <v>0.04005154801918259</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>737666833.9157619</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2391018501.883729</v>
+        <v>2972508064.704261</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08167036574209786</v>
+        <v>0.09920391464177823</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03706308320957363</v>
+        <v>0.0431118806115148</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1195509226.499901</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4016401285.958569</v>
+        <v>3705681500.727725</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1367766709200366</v>
+        <v>0.1221384442095465</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04107890260450099</v>
+        <v>0.04023664735754577</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2008200642.389618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1658057208.228295</v>
+        <v>2421623437.136539</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1649489170480917</v>
+        <v>0.1466754588951981</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0290464050975006</v>
+        <v>0.03738660314003581</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>829028557.7797791</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3154626094.808503</v>
+        <v>2191029427.480812</v>
       </c>
       <c r="F95" t="n">
-        <v>0.118780855176301</v>
+        <v>0.1296122383502024</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03270965794624691</v>
+        <v>0.03390550702277066</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1577313035.750768</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1784884708.131181</v>
+        <v>2281231905.735892</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09612200361693098</v>
+        <v>0.1266796742817494</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03207248417471156</v>
+        <v>0.04608040565321816</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>892442363.8450731</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4823170644.559634</v>
+        <v>3935252203.134516</v>
       </c>
       <c r="F97" t="n">
-        <v>0.15015026097834</v>
+        <v>0.1128202474830277</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01940565988625754</v>
+        <v>0.0238939848635506</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2411585444.685119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3661939152.970817</v>
+        <v>3218387244.048152</v>
       </c>
       <c r="F98" t="n">
-        <v>0.11731418234916</v>
+        <v>0.1195572638712186</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02739470814454051</v>
+        <v>0.0281504380154686</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1830969605.928788</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2874842537.253599</v>
+        <v>3024346419.564528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1026900729396003</v>
+        <v>0.1129917881981008</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02933534899722849</v>
+        <v>0.02394365474757551</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1437421245.342478</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3907040823.592372</v>
+        <v>4580209994.826274</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1512483313309069</v>
+        <v>0.152254071089344</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01906235294403811</v>
+        <v>0.02431537174732327</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1953520474.903095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3517266569.406549</v>
+        <v>2261164036.2685</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1356031920468909</v>
+        <v>0.1832137755760328</v>
       </c>
       <c r="G101" t="n">
-        <v>0.041255940077357</v>
+        <v>0.05431184479108311</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1758633441.950422</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_39.xlsx
+++ b/output/fit_clients/fit_round_39.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1701221638.68311</v>
+        <v>1973977444.598248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1016193672501079</v>
+        <v>0.08329564878804387</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03857453791874802</v>
+        <v>0.04461270126421307</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1872208246.080516</v>
+        <v>1871942369.512316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1657841231679332</v>
+        <v>0.1509268550241386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0304548049798837</v>
+        <v>0.04352160816916682</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3881027841.605601</v>
+        <v>4998553177.349045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1137014875396262</v>
+        <v>0.1579095075835775</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03525598725001952</v>
+        <v>0.02820174223734248</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3215292474.363093</v>
+        <v>4056663476.483642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1061018198750702</v>
+        <v>0.07415749158769984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0387328254371313</v>
+        <v>0.03985228619664422</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1888571935.582533</v>
+        <v>2404912252.945343</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1042938122339413</v>
+        <v>0.1427827136172952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04999919905320551</v>
+        <v>0.0542044838684658</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2023976517.421915</v>
+        <v>2537000887.772208</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08539683272237145</v>
+        <v>0.0931476306340973</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04657250708574605</v>
+        <v>0.04263598086337399</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2719530651.508646</v>
+        <v>2481184959.363132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1670055895137118</v>
+        <v>0.1954905836323866</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02686012810705871</v>
+        <v>0.02857282378320895</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1576233236.97939</v>
+        <v>1733110015.243488</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1318797014705819</v>
+        <v>0.1900593888194138</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02466172180825113</v>
+        <v>0.024099641145474</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4154564408.927087</v>
+        <v>3746185420.527849</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1775742914167091</v>
+        <v>0.1904074600967193</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04137946462638976</v>
+        <v>0.0512856486018744</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3975948316.799678</v>
+        <v>2875068050.953193</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1186722578324431</v>
+        <v>0.1250472134680719</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03313066417511334</v>
+        <v>0.04313305140917245</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2886092269.172956</v>
+        <v>3163098572.216466</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1239457669057307</v>
+        <v>0.1842779672477976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04643900365227862</v>
+        <v>0.04237592090979837</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4834738851.064648</v>
+        <v>3292644642.628038</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07383583281884143</v>
+        <v>0.07683530806009653</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02889998719635401</v>
+        <v>0.01970762101011051</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2934303039.860106</v>
+        <v>3514256971.768535</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1835971234503231</v>
+        <v>0.1479575322530483</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02681673543023651</v>
+        <v>0.0379273922042479</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1718008891.813868</v>
+        <v>1195732942.212962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.10009977405389</v>
+        <v>0.1023489364495127</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04059574890898636</v>
+        <v>0.029829964770638</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2475974856.059334</v>
+        <v>2466069629.260362</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1101959121913257</v>
+        <v>0.102279017499984</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04154301713851169</v>
+        <v>0.03898307181110655</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3680050385.228675</v>
+        <v>3272063888.579076</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1215578172635831</v>
+        <v>0.1375611492136061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03559935585159964</v>
+        <v>0.04907259885764084</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3809585450.215329</v>
+        <v>3657799124.464366</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1380716973850177</v>
+        <v>0.1405085413452163</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03342294787967431</v>
+        <v>0.03250641066990525</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1323189350.885088</v>
+        <v>970580998.3441538</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1693872063206502</v>
+        <v>0.1871895891060864</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01791638530165589</v>
+        <v>0.01999382405239674</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2498107593.412557</v>
+        <v>1975890196.247993</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1025018993061866</v>
+        <v>0.1411797058192163</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01966951204512016</v>
+        <v>0.02368368387301248</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2373530762.142059</v>
+        <v>2619183375.214609</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09370984530814588</v>
+        <v>0.0957959886141178</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04439373349076629</v>
+        <v>0.03433473903311129</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3913952522.114369</v>
+        <v>3496153053.129026</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1290244056637499</v>
+        <v>0.1360420176639449</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05114031754586418</v>
+        <v>0.04215357045061825</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1181192592.433721</v>
+        <v>1295270563.528699</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1567827196960403</v>
+        <v>0.1679197070457743</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03395302316855361</v>
+        <v>0.05080918752170981</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4029245677.97349</v>
+        <v>2744012819.530292</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1432454511236983</v>
+        <v>0.1266866974344034</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02681225911626706</v>
+        <v>0.02469971451608077</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1054481209.848001</v>
+        <v>1077553448.606551</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1072918314875525</v>
+        <v>0.08772011661538619</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02992430198104088</v>
+        <v>0.03078091692093965</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>880091497.5386168</v>
+        <v>1182713163.680062</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1184865148025275</v>
+        <v>0.1215744113265358</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02648959730019605</v>
+        <v>0.02851846811916457</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3853978182.332242</v>
+        <v>3165141325.429615</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1571303364086507</v>
+        <v>0.125393104540017</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02440020237214411</v>
+        <v>0.01813374108915582</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3388005408.405371</v>
+        <v>3014725936.484499</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09304208292334848</v>
+        <v>0.1425036810110196</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04759978253053546</v>
+        <v>0.03890101645974228</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3853489542.724836</v>
+        <v>4616361493.311602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1237774697669472</v>
+        <v>0.1404949095832053</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03746930319188237</v>
+        <v>0.04656259313412698</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1518895104.780455</v>
+        <v>2334016864.699713</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1241794576410465</v>
+        <v>0.1092731241941043</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03776521688187331</v>
+        <v>0.02916857324333985</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>975261505.6050153</v>
+        <v>951877044.7232429</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08002010474535388</v>
+        <v>0.08095687467427357</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03799507168872527</v>
+        <v>0.04904686984533656</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1695731558.805856</v>
+        <v>1807895936.693242</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08910999240659585</v>
+        <v>0.1119564962112278</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03232452164153206</v>
+        <v>0.02482206200702377</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2752755186.388956</v>
+        <v>3005040324.144805</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1842606970777725</v>
+        <v>0.171994675540507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0410901147551272</v>
+        <v>0.05813043258385742</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>964986605.2909002</v>
+        <v>1482028206.238654</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08756856634776093</v>
+        <v>0.07527570180723234</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02792146698264946</v>
+        <v>0.01798973065403536</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>918418380.7505131</v>
+        <v>1205192194.334017</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1036090340582758</v>
+        <v>0.1129162319599935</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03072681715365542</v>
+        <v>0.04337636981135968</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3174028315.132294</v>
+        <v>2857504355.675662</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1529875963183284</v>
+        <v>0.1718564752327586</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0174587681086608</v>
+        <v>0.02893057707653212</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2533004806.975579</v>
+        <v>2204357708.803516</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07184217953261841</v>
+        <v>0.08857441598589297</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02618603198391078</v>
+        <v>0.02690976870867762</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1677148477.077453</v>
+        <v>1862038713.693197</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1154983459705247</v>
+        <v>0.08145669649987777</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0267619015903373</v>
+        <v>0.02814491505429677</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1344706544.11561</v>
+        <v>1590496045.789044</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1885014002691961</v>
+        <v>0.1733093508741176</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02630252692101707</v>
+        <v>0.02260455228065125</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1393927705.53662</v>
+        <v>1754113067.219215</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1277357485200456</v>
+        <v>0.1046043784107987</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05623079193979518</v>
+        <v>0.03736462674067318</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2061265823.41174</v>
+        <v>2816839044.892517</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1395335118872717</v>
+        <v>0.1185349534326321</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03715914865518041</v>
+        <v>0.03405834885811627</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3821187281.901927</v>
+        <v>3704743886.073007</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1237299336464298</v>
+        <v>0.1074564100262498</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02911454283204371</v>
+        <v>0.02979133745146849</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2565249190.610431</v>
+        <v>2958773360.509189</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1438444126006078</v>
+        <v>0.1620061736084447</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01569371374354896</v>
+        <v>0.01970625636326758</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2210245234.610959</v>
+        <v>1575707746.842723</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06803709009155878</v>
+        <v>0.07579435488972697</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02414866139610644</v>
+        <v>0.02246565154318816</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1930172627.485324</v>
+        <v>2068880993.243084</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1758125635585168</v>
+        <v>0.1856971523373765</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05409612374815021</v>
+        <v>0.04595959152878144</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5221609347.405442</v>
+        <v>5230559100.963931</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1598614197354402</v>
+        <v>0.1539426148931727</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04811395873615228</v>
+        <v>0.05905206146572266</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3602608734.832726</v>
+        <v>3902994974.819065</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1453969663075356</v>
+        <v>0.1755723927136731</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05315386849773669</v>
+        <v>0.04938389539928142</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4397582197.209525</v>
+        <v>3967382103.257456</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07693523479914413</v>
+        <v>0.1020905806221046</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03367863991685491</v>
+        <v>0.02451482240929994</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1232027566.751416</v>
+        <v>1516170448.465956</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1288767531810078</v>
+        <v>0.1208547017205694</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03685979235257202</v>
+        <v>0.04110193500627989</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3202306305.070081</v>
+        <v>2939842560.077569</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1357117437822114</v>
+        <v>0.1556987180500476</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03297032432754623</v>
+        <v>0.05051416292348291</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>956110077.7724341</v>
+        <v>1497292418.983141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1414198394424575</v>
+        <v>0.1464521481967961</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04015819191307935</v>
+        <v>0.0344973336072062</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3807102990.162669</v>
+        <v>3465874495.286865</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1084717267070963</v>
+        <v>0.09891852406400212</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05556782801667488</v>
+        <v>0.04725683968527659</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3792468364.476328</v>
+        <v>2680634963.745378</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1334980931008531</v>
+        <v>0.1914259881936177</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02966757743265488</v>
+        <v>0.02337348128880169</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3596780722.94743</v>
+        <v>4541781859.718194</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1648196005657666</v>
+        <v>0.169658363617351</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03881241954906382</v>
+        <v>0.05025396151617044</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3739854916.925234</v>
+        <v>3581142058.334942</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1545140789810354</v>
+        <v>0.1930940781501753</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02780555856075416</v>
+        <v>0.0273404907925738</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1266888373.118605</v>
+        <v>1672100638.447088</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1072547278561191</v>
+        <v>0.1028989482732864</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05238705958519733</v>
+        <v>0.04401864972874516</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3611039181.326677</v>
+        <v>2954563060.041171</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1268309160430066</v>
+        <v>0.1287725593000395</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01914952800101931</v>
+        <v>0.01663066435895774</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1285587717.682005</v>
+        <v>1369211194.201096</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2018955150089893</v>
+        <v>0.163672800252122</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03597997636493813</v>
+        <v>0.03545164111686422</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5193622558.462363</v>
+        <v>5094304030.333995</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1027734334217741</v>
+        <v>0.1078088718825681</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03295823867305123</v>
+        <v>0.04772043477487934</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2460784537.857962</v>
+        <v>3119734974.272897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1899586126450533</v>
+        <v>0.1576520796809193</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03336892906035218</v>
+        <v>0.0202128953699627</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2680254474.393504</v>
+        <v>2552855458.895222</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1499453999848792</v>
+        <v>0.1316547235707021</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02621574021457325</v>
+        <v>0.02168753346929732</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1913415926.74086</v>
+        <v>2058677909.099441</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1289223927366898</v>
+        <v>0.1192494888228853</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03771476318560436</v>
+        <v>0.04444191688830598</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4626734805.138371</v>
+        <v>4011579701.246425</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07268526871267496</v>
+        <v>0.06779377399159399</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04647253163015951</v>
+        <v>0.04452409412430448</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3554976340.824172</v>
+        <v>3344771959.212602</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1490167957626514</v>
+        <v>0.1503548962614355</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02271895149655221</v>
+        <v>0.03153032695313547</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4370772165.142247</v>
+        <v>5448495225.80504</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1294303990389488</v>
+        <v>0.1246444167265131</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02088889272601129</v>
+        <v>0.02564673897861848</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4976225366.753378</v>
+        <v>4635711792.634615</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1064277235527207</v>
+        <v>0.1287295828412678</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04219608644553125</v>
+        <v>0.04874172369979659</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2450047439.434317</v>
+        <v>2209258205.371521</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09134994011754245</v>
+        <v>0.09727529028053275</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04041977235444068</v>
+        <v>0.04528372362019586</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5127718877.288261</v>
+        <v>5089470218.701441</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1182896031940276</v>
+        <v>0.1530786485162471</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04988002479983036</v>
+        <v>0.04397099288334773</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1501427412.855738</v>
+        <v>2111420975.577348</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1126039955371873</v>
+        <v>0.1193642355274806</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05194486292267198</v>
+        <v>0.05180470645316243</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3670560233.893806</v>
+        <v>3015178903.34607</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08478135489742103</v>
+        <v>0.07080064785899927</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03109392797997762</v>
+        <v>0.04982894312199376</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4229104388.88654</v>
+        <v>3560669022.129598</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1772217276339807</v>
+        <v>0.1373091490476715</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03024943726437037</v>
+        <v>0.03392322670619401</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1785366563.388916</v>
+        <v>2062381972.822441</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1077819075323528</v>
+        <v>0.1003965840522343</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03484033785921737</v>
+        <v>0.04945228135409835</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3311867118.540386</v>
+        <v>2557364253.73718</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08759661618409173</v>
+        <v>0.08405360592883046</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04823716627073234</v>
+        <v>0.04620112885038574</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3976955006.445017</v>
+        <v>3464972190.622969</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1687491379087818</v>
+        <v>0.1602595220877225</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03179108003626041</v>
+        <v>0.02317250967445302</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1778685751.015354</v>
+        <v>1942195523.259952</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1115810342861153</v>
+        <v>0.1175025518896113</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02933210837195089</v>
+        <v>0.03613940639931867</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3959212380.993152</v>
+        <v>5223293946.946524</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09662098489301038</v>
+        <v>0.1095035167795295</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03403317242960711</v>
+        <v>0.0271688032490604</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1799416899.678791</v>
+        <v>2295779203.069981</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1610749608578823</v>
+        <v>0.1443191276647045</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02259347517218825</v>
+        <v>0.0211752046257468</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4408246235.539556</v>
+        <v>4048755661.192806</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1215199818865153</v>
+        <v>0.1218589439030933</v>
       </c>
       <c r="G78" t="n">
-        <v>0.053119377093475</v>
+        <v>0.04425760934252646</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1504933737.817966</v>
+        <v>1434020466.254481</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1412920684112406</v>
+        <v>0.1696524261328816</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02778274878402051</v>
+        <v>0.03701210895945561</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5062296225.584611</v>
+        <v>3976344093.272558</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09848880550900863</v>
+        <v>0.08332775923894273</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03538467613319801</v>
+        <v>0.02923664066027275</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5125138247.688881</v>
+        <v>4627435111.425123</v>
       </c>
       <c r="F81" t="n">
-        <v>0.117133272679197</v>
+        <v>0.09788240085174772</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02036755840918032</v>
+        <v>0.02786919052396328</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5296067785.057054</v>
+        <v>4867021254.733185</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1856373643289858</v>
+        <v>0.1905913908175469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02923587605371984</v>
+        <v>0.02346841360652105</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1540399434.674523</v>
+        <v>2115336625.990181</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1505219734977233</v>
+        <v>0.1229569869078561</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03366473838697939</v>
+        <v>0.03300815610161228</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2392398461.708643</v>
+        <v>1836573772.459795</v>
       </c>
       <c r="F84" t="n">
-        <v>0.079418231274804</v>
+        <v>0.08275295515505833</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04808565091774009</v>
+        <v>0.03509394580847634</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2640360521.897153</v>
+        <v>2405774143.260637</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1539079199744585</v>
+        <v>0.1671331170716231</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04038386181853061</v>
+        <v>0.03810272535729946</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2589654264.98105</v>
+        <v>2743024687.739327</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1045291567752796</v>
+        <v>0.1709231647471338</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02287042198999756</v>
+        <v>0.01723905081386137</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1352321354.366135</v>
+        <v>991409533.658583</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1605032942704115</v>
+        <v>0.1461713662337848</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03692163705010481</v>
+        <v>0.03396955202560733</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2801667498.246041</v>
+        <v>3729575569.629099</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1580559816328889</v>
+        <v>0.1112536381016255</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02543151818265718</v>
+        <v>0.03964156550313216</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3015432481.186991</v>
+        <v>2332316995.280189</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1099674707813638</v>
+        <v>0.1281284763479066</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0255923815724755</v>
+        <v>0.02705364161829869</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1988809859.340729</v>
+        <v>2157575757.96539</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1121935867575455</v>
+        <v>0.1349849643632428</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04835881899566451</v>
+        <v>0.04700413213751279</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1272352676.984494</v>
+        <v>1451373486.181749</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1844828905423673</v>
+        <v>0.1293741355202386</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04005154801918259</v>
+        <v>0.04813455847778993</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2972508064.704261</v>
+        <v>2966943656.931504</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09920391464177823</v>
+        <v>0.0999634608679031</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0431118806115148</v>
+        <v>0.04721516558658694</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3705681500.727725</v>
+        <v>4316679717.283727</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1221384442095465</v>
+        <v>0.08768119569247444</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04023664735754577</v>
+        <v>0.04996752759579576</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2421623437.136539</v>
+        <v>1666456479.486641</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1466754588951981</v>
+        <v>0.1392319829496323</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03738660314003581</v>
+        <v>0.03582072765180944</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2191029427.480812</v>
+        <v>2146909081.059175</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1296122383502024</v>
+        <v>0.08650046791653385</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03390550702277066</v>
+        <v>0.04026080526793284</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2281231905.735892</v>
+        <v>1915560919.504782</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1266796742817494</v>
+        <v>0.1181720817124963</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04608040565321816</v>
+        <v>0.02942494540133429</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3935252203.134516</v>
+        <v>4967398056.092573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1128202474830277</v>
+        <v>0.1074433073597173</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0238939848635506</v>
+        <v>0.02342278322976499</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3218387244.048152</v>
+        <v>3355751578.301907</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1195572638712186</v>
+        <v>0.1062437083371933</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0281504380154686</v>
+        <v>0.03177732831735505</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3024346419.564528</v>
+        <v>2402283238.313458</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1129917881981008</v>
+        <v>0.1477903442350229</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02394365474757551</v>
+        <v>0.03243825118919397</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4580209994.826274</v>
+        <v>4649762038.217067</v>
       </c>
       <c r="F100" t="n">
-        <v>0.152254071089344</v>
+        <v>0.1261958918445148</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02431537174732327</v>
+        <v>0.02559725236645956</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2261164036.2685</v>
+        <v>2899544735.790313</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1832137755760328</v>
+        <v>0.1774186460603556</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05431184479108311</v>
+        <v>0.05087637877490837</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_39.xlsx
+++ b/output/fit_clients/fit_round_39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1973977444.598248</v>
+        <v>1728664911.776561</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08329564878804387</v>
+        <v>0.07265512106188533</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04461270126421307</v>
+        <v>0.04081148183402327</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1871942369.512316</v>
+        <v>1932977320.668122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1509268550241386</v>
+        <v>0.136890007035743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04352160816916682</v>
+        <v>0.05042637135946429</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4998553177.349045</v>
+        <v>5197579683.793586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1579095075835775</v>
+        <v>0.1323881380719828</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02820174223734248</v>
+        <v>0.02584120833727449</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>214.9053634522013</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4056663476.483642</v>
+        <v>2951718498.712567</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07415749158769984</v>
+        <v>0.08872888111142856</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03985228619664422</v>
+        <v>0.03769738397236595</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2404912252.945343</v>
+        <v>2522837101.293738</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1427827136172952</v>
+        <v>0.09597898639968003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0542044838684658</v>
+        <v>0.04878148502335794</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2537000887.772208</v>
+        <v>2572388094.658895</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0931476306340973</v>
+        <v>0.0896188878567496</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04263598086337399</v>
+        <v>0.03298688390616716</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2481184959.363132</v>
+        <v>3584386008.650028</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1954905836323866</v>
+        <v>0.2200657937131207</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02857282378320895</v>
+        <v>0.02876118123417095</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1733110015.243488</v>
+        <v>1557503206.608574</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1900593888194138</v>
+        <v>0.1926405042676937</v>
       </c>
       <c r="G9" t="n">
-        <v>0.024099641145474</v>
+        <v>0.03093041042739715</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3746185420.527849</v>
+        <v>4337221961.405614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1904074600967193</v>
+        <v>0.1829656214316407</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0512856486018744</v>
+        <v>0.04786419407022824</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>36</v>
+      </c>
+      <c r="J10" t="n">
+        <v>39</v>
+      </c>
+      <c r="K10" t="n">
+        <v>237.8644319468631</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2875068050.953193</v>
+        <v>2661145718.932744</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1250472134680719</v>
+        <v>0.1723893739735089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04313305140917245</v>
+        <v>0.03246112886672553</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3163098572.216466</v>
+        <v>2536807415.543777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1842779672477976</v>
+        <v>0.1451083638361662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04237592090979837</v>
+        <v>0.04873422315963087</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3292644642.628038</v>
+        <v>3595281585.329572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07683530806009653</v>
+        <v>0.08534934801349525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01970762101011051</v>
+        <v>0.02961341313398183</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>39</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3514256971.768535</v>
+        <v>2383698002.649932</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1479575322530483</v>
+        <v>0.1701196581757549</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0379273922042479</v>
+        <v>0.03594688861209405</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1195732942.212962</v>
+        <v>1144442150.864573</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1023489364495127</v>
+        <v>0.07570421638637941</v>
       </c>
       <c r="G15" t="n">
-        <v>0.029829964770638</v>
+        <v>0.0495312958382598</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2466069629.260362</v>
+        <v>1835645478.73313</v>
       </c>
       <c r="F16" t="n">
-        <v>0.102279017499984</v>
+        <v>0.1124654121544086</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03898307181110655</v>
+        <v>0.04243369783326106</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3272063888.579076</v>
+        <v>3528352602.543327</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1375611492136061</v>
+        <v>0.1361172749799687</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04907259885764084</v>
+        <v>0.03658081271585399</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>38</v>
+      </c>
+      <c r="K17" t="n">
+        <v>142.4987393634585</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3657799124.464366</v>
+        <v>3410574105.162168</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1405085413452163</v>
+        <v>0.122404823631141</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03250641066990525</v>
+        <v>0.02438975751295879</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>39</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>970580998.3441538</v>
+        <v>996819438.6792322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1871895891060864</v>
+        <v>0.121756615296046</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01999382405239674</v>
+        <v>0.01876303220893908</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1975890196.247993</v>
+        <v>1831446912.750404</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1411797058192163</v>
+        <v>0.1337693360545032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02368368387301248</v>
+        <v>0.02431492495001649</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2619183375.214609</v>
+        <v>2105962287.332931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0957959886141178</v>
+        <v>0.08251840210759474</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03433473903311129</v>
+        <v>0.04065366520292004</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3496153053.129026</v>
+        <v>3079945814.95858</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1360420176639449</v>
+        <v>0.1407261455047018</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04215357045061825</v>
+        <v>0.03826891312846572</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1295270563.528699</v>
+        <v>1429146764.239683</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1679197070457743</v>
+        <v>0.1737024667574416</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05080918752170981</v>
+        <v>0.03667550435624742</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2744012819.530292</v>
+        <v>3557901850.130565</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1266866974344034</v>
+        <v>0.1133756235508767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02469971451608077</v>
+        <v>0.03414904230201661</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1077553448.606551</v>
+        <v>1334344913.533295</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08772011661538619</v>
+        <v>0.1212373045143475</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03078091692093965</v>
+        <v>0.02836866259268095</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1182713163.680062</v>
+        <v>1309900442.583054</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1215744113265358</v>
+        <v>0.089347978444202</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02851846811916457</v>
+        <v>0.03551820312809333</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3165141325.429615</v>
+        <v>4364338281.660141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.125393104540017</v>
+        <v>0.105852940188082</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01813374108915582</v>
+        <v>0.02425845379743943</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.0132212170608</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3014725936.484499</v>
+        <v>3320667356.120738</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1425036810110196</v>
+        <v>0.1361780183583998</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03890101645974228</v>
+        <v>0.03325119337147518</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>36</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4616361493.311602</v>
+        <v>5733600667.435492</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1404949095832053</v>
+        <v>0.1488115488799348</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04656259313412698</v>
+        <v>0.04669242004830001</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.4676958860694</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2334016864.699713</v>
+        <v>1598658903.867511</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1092731241941043</v>
+        <v>0.09594277070254845</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02916857324333985</v>
+        <v>0.03972168373434195</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>951877044.7232429</v>
+        <v>1339216570.971743</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08095687467427357</v>
+        <v>0.110539518695793</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04904686984533656</v>
+        <v>0.05074763130972958</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1807895936.693242</v>
+        <v>1191714407.764904</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1119564962112278</v>
+        <v>0.09752669835359938</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02482206200702377</v>
+        <v>0.0379496595394716</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3005040324.144805</v>
+        <v>2966554875.605869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.171994675540507</v>
+        <v>0.158612727921922</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05813043258385742</v>
+        <v>0.03783414824906505</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1482028206.238654</v>
+        <v>1194446345.16766</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07527570180723234</v>
+        <v>0.1063471939079938</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01798973065403536</v>
+        <v>0.02308716524609949</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1205192194.334017</v>
+        <v>911913347.7261024</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1129162319599935</v>
+        <v>0.07605268191924537</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04337636981135968</v>
+        <v>0.02786556336634525</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2857504355.675662</v>
+        <v>2522410544.76281</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1718564752327586</v>
+        <v>0.1282855646108775</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02893057707653212</v>
+        <v>0.0214637121188727</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2204357708.803516</v>
+        <v>2626952602.045702</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08857441598589297</v>
+        <v>0.07687921966465482</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02690976870867762</v>
+        <v>0.03275859959433366</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1862038713.693197</v>
+        <v>1742631049.736855</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08145669649987777</v>
+        <v>0.09961355724450049</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02814491505429677</v>
+        <v>0.03202218541998728</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1590496045.789044</v>
+        <v>2088217291.221171</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1733093508741176</v>
+        <v>0.1468705937871966</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02260455228065125</v>
+        <v>0.03086008427355334</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1754113067.219215</v>
+        <v>1367678112.241987</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1046043784107987</v>
+        <v>0.1570661886171274</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03736462674067318</v>
+        <v>0.05997631872222296</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2816839044.892517</v>
+        <v>2441346608.129506</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1185349534326321</v>
+        <v>0.1604140207454686</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03405834885811627</v>
+        <v>0.03654288098794344</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3704743886.073007</v>
+        <v>2685141339.303332</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1074564100262498</v>
+        <v>0.08318081892807855</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02979133745146849</v>
+        <v>0.03127317019088357</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>13</v>
+      </c>
+      <c r="J42" t="n">
+        <v>38</v>
+      </c>
+      <c r="K42" t="n">
+        <v>87.65993280742136</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2958773360.509189</v>
+        <v>2915946992.53262</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1620061736084447</v>
+        <v>0.1792023567240412</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01970625636326758</v>
+        <v>0.02441800658562773</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1575707746.842723</v>
+        <v>1909253952.410184</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07579435488972697</v>
+        <v>0.100720218094971</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02246565154318816</v>
+        <v>0.02583892757302003</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2068880993.243084</v>
+        <v>1670496293.067005</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1856971523373765</v>
+        <v>0.1308577507961325</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04595959152878144</v>
+        <v>0.03946749305285595</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5230559100.963931</v>
+        <v>5574652078.944182</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1539426148931727</v>
+        <v>0.1367171989140191</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05905206146572266</v>
+        <v>0.0533194504059253</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>38</v>
+      </c>
+      <c r="K46" t="n">
+        <v>213.6479393084209</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3902994974.819065</v>
+        <v>4128319844.256234</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1755723927136731</v>
+        <v>0.132201720091344</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04938389539928142</v>
+        <v>0.03921816859460291</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17</v>
+      </c>
+      <c r="J47" t="n">
+        <v>38</v>
+      </c>
+      <c r="K47" t="n">
+        <v>183.647434449209</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3967382103.257456</v>
+        <v>3000283416.599363</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020905806221046</v>
+        <v>0.07455534740911346</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02451482240929994</v>
+        <v>0.03231687006524575</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>38</v>
+      </c>
+      <c r="K48" t="n">
+        <v>109.6352899591172</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1516170448.465956</v>
+        <v>1696394658.06705</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1208547017205694</v>
+        <v>0.1682678324742017</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04110193500627989</v>
+        <v>0.03214636457471959</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2939842560.077569</v>
+        <v>2606171294.808489</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1556987180500476</v>
+        <v>0.1093837652233964</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05051416292348291</v>
+        <v>0.04661851935908624</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>38</v>
+      </c>
+      <c r="K50" t="n">
+        <v>83.80662226349997</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1497292418.983141</v>
+        <v>1134834798.888969</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1464521481967961</v>
+        <v>0.1844079383342181</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0344973336072062</v>
+        <v>0.04961323286752346</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2271,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3465874495.286865</v>
+        <v>4609806149.792353</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09891852406400212</v>
+        <v>0.1130265289071014</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04725683968527659</v>
+        <v>0.04395284430566752</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" t="n">
+        <v>39</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2680634963.745378</v>
+        <v>2404736023.664786</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1914259881936177</v>
+        <v>0.1315899769270621</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02337348128880169</v>
+        <v>0.02869598325604944</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4541781859.718194</v>
+        <v>3166542225.149819</v>
       </c>
       <c r="F54" t="n">
-        <v>0.169658363617351</v>
+        <v>0.1467252005135509</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05025396151617044</v>
+        <v>0.03395942876136469</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>38</v>
+      </c>
+      <c r="K54" t="n">
+        <v>122.1435715158289</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3581142058.334942</v>
+        <v>4347771669.06379</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1930940781501753</v>
+        <v>0.1801440185977804</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0273404907925738</v>
+        <v>0.02528097890653411</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>39</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1672100638.447088</v>
+        <v>1634641398.654439</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1028989482732864</v>
+        <v>0.104847247957523</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04401864972874516</v>
+        <v>0.03989417772433461</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2954563060.041171</v>
+        <v>3944358611.917983</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1287725593000395</v>
+        <v>0.1680533353627408</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01663066435895774</v>
+        <v>0.02480884372104887</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1369211194.201096</v>
+        <v>1221001749.753222</v>
       </c>
       <c r="F58" t="n">
-        <v>0.163672800252122</v>
+        <v>0.1883813654670626</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03545164111686422</v>
+        <v>0.03581454915579944</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5094304030.333995</v>
+        <v>5211340437.267514</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1078088718825681</v>
+        <v>0.08768263950059373</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04772043477487934</v>
+        <v>0.0462406159661609</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>18</v>
+      </c>
+      <c r="J59" t="n">
+        <v>39</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3119734974.272897</v>
+        <v>2437714823.781579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1576520796809193</v>
+        <v>0.1727834682388867</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0202128953699627</v>
+        <v>0.02259518733247489</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2552855458.895222</v>
+        <v>2835179767.98288</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1316547235707021</v>
+        <v>0.1176779639950581</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02168753346929732</v>
+        <v>0.0211908110008696</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2058677909.099441</v>
+        <v>2058918375.818895</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1192494888228853</v>
+        <v>0.1744258242468158</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04444191688830598</v>
+        <v>0.03165572154486221</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4011579701.246425</v>
+        <v>4218380211.356829</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06779377399159399</v>
+        <v>0.0801906366201194</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04452409412430448</v>
+        <v>0.03145907815310079</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>38</v>
+      </c>
+      <c r="K63" t="n">
+        <v>195.1890995567592</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3344771959.212602</v>
+        <v>4839038668.839711</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1503548962614355</v>
+        <v>0.1583452010618695</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03153032695313547</v>
+        <v>0.02240397254918286</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>19</v>
+      </c>
+      <c r="J64" t="n">
+        <v>39</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5448495225.80504</v>
+        <v>4146075402.032424</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1246444167265131</v>
+        <v>0.1428533910734648</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02564673897861848</v>
+        <v>0.02182075944656909</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>39</v>
+      </c>
+      <c r="K65" t="n">
+        <v>214.2733333412913</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4635711792.634615</v>
+        <v>3957346406.472707</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1287295828412678</v>
+        <v>0.1552365342462103</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04874172369979659</v>
+        <v>0.03621136377449435</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>19</v>
+      </c>
+      <c r="J66" t="n">
+        <v>39</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2209258205.371521</v>
+        <v>2609636897.691507</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09727529028053275</v>
+        <v>0.08126731203685561</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04528372362019586</v>
+        <v>0.04064157898926973</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5089470218.701441</v>
+        <v>5456970861.305364</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1530786485162471</v>
+        <v>0.1313893349901999</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04397099288334773</v>
+        <v>0.04403636308972531</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>19</v>
+      </c>
+      <c r="J68" t="n">
+        <v>39</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2111420975.577348</v>
+        <v>1831704599.717939</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1193642355274806</v>
+        <v>0.1294182003731103</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05180470645316243</v>
+        <v>0.05953244283647734</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3015178903.34607</v>
+        <v>2378014537.869246</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07080064785899927</v>
+        <v>0.07995761295744504</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04982894312199376</v>
+        <v>0.03143588269479548</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3560669022.129598</v>
+        <v>5480054916.611742</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1373091490476715</v>
+        <v>0.1787828488055093</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03392322670619401</v>
+        <v>0.03005721309928124</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>32</v>
+      </c>
+      <c r="J71" t="n">
+        <v>39</v>
+      </c>
+      <c r="K71" t="n">
+        <v>215.427465024775</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2062381972.822441</v>
+        <v>1773557669.149937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1003965840522343</v>
+        <v>0.07320462150685811</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04945228135409835</v>
+        <v>0.04217344425924662</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2557364253.73718</v>
+        <v>2564410535.964636</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08405360592883046</v>
+        <v>0.0857756782743119</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04620112885038574</v>
+        <v>0.04896290060423569</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3464972190.622969</v>
+        <v>3912673780.683949</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1602595220877225</v>
+        <v>0.1546683142526276</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02317250967445302</v>
+        <v>0.02749190057539076</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1942195523.259952</v>
+        <v>2452768091.509152</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1175025518896113</v>
+        <v>0.1351816070501027</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03613940639931867</v>
+        <v>0.03154920820307242</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5223293946.946524</v>
+        <v>5264062044.924755</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1095035167795295</v>
+        <v>0.12239403843988</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0271688032490604</v>
+        <v>0.02264759901138068</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>39</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2295779203.069981</v>
+        <v>1640669516.148652</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1443191276647045</v>
+        <v>0.1544431695704499</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0211752046257468</v>
+        <v>0.03150038551679187</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3189,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4048755661.192806</v>
+        <v>4622950037.498323</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1218589439030933</v>
+        <v>0.1361041341262781</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04425760934252646</v>
+        <v>0.04540296516076232</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>16</v>
+      </c>
+      <c r="J78" t="n">
+        <v>39</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1434020466.254481</v>
+        <v>1877810530.206692</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1696524261328816</v>
+        <v>0.1486257103196976</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03701210895945561</v>
+        <v>0.03194010277773154</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3976344093.272558</v>
+        <v>4265396412.899079</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08332775923894273</v>
+        <v>0.09941470650582121</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02923664066027275</v>
+        <v>0.02497673834254121</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>38</v>
+      </c>
+      <c r="K80" t="n">
+        <v>167.8676671614114</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4627435111.425123</v>
+        <v>3223672508.423055</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09788240085174772</v>
+        <v>0.09170471001490077</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02786919052396328</v>
+        <v>0.03204727275625911</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>38</v>
+      </c>
+      <c r="K81" t="n">
+        <v>102.9205652280112</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4867021254.733185</v>
+        <v>4902680052.927017</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1905913908175469</v>
+        <v>0.157504325837491</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02346841360652105</v>
+        <v>0.02095752774430665</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>22</v>
+      </c>
+      <c r="J82" t="n">
+        <v>38</v>
+      </c>
+      <c r="K82" t="n">
+        <v>213.5087339278776</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2115336625.990181</v>
+        <v>2001814894.066446</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1229569869078561</v>
+        <v>0.1070992382235562</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03300815610161228</v>
+        <v>0.03605233336920832</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1836573772.459795</v>
+        <v>2322877298.660205</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08275295515505833</v>
+        <v>0.07733987133927102</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03509394580847634</v>
+        <v>0.03702745614377641</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2405774143.260637</v>
+        <v>3056638259.554498</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1671331170716231</v>
+        <v>0.1346539727574348</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03810272535729946</v>
+        <v>0.05417367687557048</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2743024687.739327</v>
+        <v>2312764962.366913</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1709231647471338</v>
+        <v>0.1393402079207335</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01723905081386137</v>
+        <v>0.01854633254976439</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>991409533.658583</v>
+        <v>1372328403.825631</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1461713662337848</v>
+        <v>0.1173026496870234</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03396955202560733</v>
+        <v>0.02988196513962584</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3729575569.629099</v>
+        <v>3573756857.643565</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1112536381016255</v>
+        <v>0.1104073811933638</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03964156550313216</v>
+        <v>0.03813951859819801</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>38</v>
+      </c>
+      <c r="K88" t="n">
+        <v>168.6894617856497</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2332316995.280189</v>
+        <v>2589443939.661763</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1281284763479066</v>
+        <v>0.128836564722255</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02705364161829869</v>
+        <v>0.04115536367219548</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2157575757.96539</v>
+        <v>1784880919.670029</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1349849643632428</v>
+        <v>0.08383775891029734</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04700413213751279</v>
+        <v>0.04525138198346437</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1451373486.181749</v>
+        <v>1409303238.090155</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1293741355202386</v>
+        <v>0.1447805131086128</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04813455847778993</v>
+        <v>0.04458905070256067</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2966943656.931504</v>
+        <v>2408007759.153111</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0999634608679031</v>
+        <v>0.09799546405463115</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04721516558658694</v>
+        <v>0.03231399378422853</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4316679717.283727</v>
+        <v>4507239801.015031</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08768119569247444</v>
+        <v>0.1412463421456921</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04996752759579576</v>
+        <v>0.04297465618009504</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>17</v>
+      </c>
+      <c r="J93" t="n">
+        <v>39</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1666456479.486641</v>
+        <v>2376466916.619246</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1392319829496323</v>
+        <v>0.1284878208535715</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03582072765180944</v>
+        <v>0.03986569986668702</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2146909081.059175</v>
+        <v>2474923353.105392</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08650046791653385</v>
+        <v>0.1312307573480815</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04026080526793284</v>
+        <v>0.05014413162393054</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1915560919.504782</v>
+        <v>1917553628.202427</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1181720817124963</v>
+        <v>0.09993241253997864</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02942494540133429</v>
+        <v>0.03974543383050033</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4967398056.092573</v>
+        <v>4338765662.495414</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1074433073597173</v>
+        <v>0.1068806206801367</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02342278322976499</v>
+        <v>0.01758680519844621</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>38</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.0008197976009</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3355751578.301907</v>
+        <v>2461409715.678117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1062437083371933</v>
+        <v>0.1271877511187175</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03177732831735505</v>
+        <v>0.0263035989989796</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2402283238.313458</v>
+        <v>2798675549.642909</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1477903442350229</v>
+        <v>0.09939064942165758</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03243825118919397</v>
+        <v>0.03138797726310791</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4649762038.217067</v>
+        <v>4115854829.288423</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1261958918445148</v>
+        <v>0.1388430952148065</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02559725236645956</v>
+        <v>0.0227044448334443</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>18</v>
+      </c>
+      <c r="J100" t="n">
+        <v>38</v>
+      </c>
+      <c r="K100" t="n">
+        <v>195.5847100168813</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2899544735.790313</v>
+        <v>2721228301.154105</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1774186460603556</v>
+        <v>0.1729648303697837</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05087637877490837</v>
+        <v>0.04169517681293755</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
